--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SREELAKSHMI\eclipse-workspace\QALegendBilling\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E9504B-0A57-4EA6-8F92-09DE90F44208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7458B3B4-78D3-4FFC-9145-170EF6A8FF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2088" yWindow="2088" windowWidth="2388" windowHeight="564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="ResetPage" sheetId="3" r:id="rId3"/>
     <sheet name="LoginPageDataProvider" sheetId="4" r:id="rId4"/>
     <sheet name="CreatePage" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
-    <sheet name="RoleSearch" sheetId="6" r:id="rId7"/>
+    <sheet name="RoleSearch" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -510,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C477DD-B81F-4549-9FD1-767B99374CD7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -650,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D88353-4F5F-45D9-B5F6-2A6F13E9339F}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,18 +750,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701D5077-BACC-45E7-A5D8-C7D01200A07F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB870594-A644-4411-ADAB-424D15F45CEA}">
   <dimension ref="A1:B1"/>
   <sheetViews>
